--- a/Covid19_planning_data_template_v1.xlsx
+++ b/Covid19_planning_data_template_v1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayushi.Goel\OneDrive - EY\COVID Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya.Chawla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{A9D24C92-3980-4AE1-AB50-6C12A70FB79C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FEB35D5C-BE5E-4706-B31B-1E2B93685235}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965711C-EDBB-4056-B5B6-1C2DDB52BDDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Guide(how to use)" sheetId="5" r:id="rId1"/>
-    <sheet name="SIR_Model_Inputs" sheetId="2" r:id="rId2"/>
+    <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
+    <sheet name="SIR Model Inputs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>District</t>
-  </si>
-  <si>
-    <t>Hisar</t>
   </si>
   <si>
     <t>Regional_Population</t>
@@ -46,22 +43,25 @@
     <t>Doubling_time_in_days</t>
   </si>
   <si>
-    <t>Percentage_Suspected_Positive</t>
+    <t>Infectious_Days</t>
+  </si>
+  <si>
+    <t>Fatality_Rate</t>
+  </si>
+  <si>
+    <t>Days_to_project</t>
+  </si>
+  <si>
+    <t>Hisar</t>
+  </si>
+  <si>
+    <t>Percentage_Social_Distancing</t>
   </si>
   <si>
     <t>Critical_Cases_Rate</t>
   </si>
   <si>
-    <t>Fatality_Rate</t>
-  </si>
-  <si>
-    <t>Infectious_Days</t>
-  </si>
-  <si>
-    <t>Percentage_Hospitalization_Rate</t>
-  </si>
-  <si>
-    <t>Percentage_Social_Distancing</t>
+    <t>Percentage_Suspected_Positive</t>
   </si>
   <si>
     <t>Percentage_Hospital_Quarantined</t>
@@ -70,46 +70,31 @@
     <t>Percentage_Home_Quarantined</t>
   </si>
   <si>
-    <t>Days_to_project</t>
+    <t xml:space="preserve">This input template has been created to gather requirements for EY's COVID-19 Resource Planning tool. </t>
   </si>
   <si>
-    <t>Field name</t>
+    <t>Updating the tab "SIR Model Inputs"</t>
   </si>
   <si>
-    <t>Explanation</t>
+    <t xml:space="preserve">Inputs from this tab will be used to run the SIR model for the administrative units for which data is filled. </t>
   </si>
   <si>
-    <t>Sample input</t>
+    <t>Description of each column and the required inputs are as below:</t>
   </si>
   <si>
-    <t>Name of the region for which forecast needs to be done</t>
+    <t>(One sample input has been provided in the tab for reference)</t>
   </si>
   <si>
-    <t>Total population size of the catchment region</t>
+    <t>Column Name</t>
   </si>
   <si>
-    <t>Number of patients currently hospitalized with COVID-19 at your hospital(s)</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>Number of days required for the number of infected individuals to double</t>
-  </si>
-  <si>
-    <t>Estimate of how much social contact is reduced in your region compared to no social distancing at all</t>
-  </si>
-  <si>
-    <t>Percentage of all infected cases which will need hospitalization</t>
-  </si>
-  <si>
-    <t>Number of days a person can infect another person (regardless of whether the infected person symptomatic or asymptomatic)</t>
+    <t>Sample Value</t>
   </si>
   <si>
     <t>Percentage of deaths from all people infected</t>
-  </si>
-  <si>
-    <t>Percentage of all infected cases which will get critical</t>
-  </si>
-  <si>
-    <t>Percentage of people  suspected positive with COVID-19</t>
   </si>
   <si>
     <t>Percentage of suspected positive people that need to be quarantined in hospitals</t>
@@ -121,14 +106,120 @@
     <t>Number of days for which the forecast is needed</t>
   </si>
   <si>
-    <t>Currently_hospitalized_COVID_19_Patients</t>
+    <t>Name of the administrative unit for which forecast is to be done</t>
+  </si>
+  <si>
+    <t>Total population of the administrative unit</t>
+  </si>
+  <si>
+    <t>Input Format</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percentage reduction in social contact in the administrative unit</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Number of days required for number of infected individuals to double</t>
+  </si>
+  <si>
+    <t>The number of days in which an individual can infect others (regardless of whether the infected person symptomatic or asymptomatic)</t>
+  </si>
+  <si>
+    <t>Percentage of critical cases in the total infected cases</t>
+  </si>
+  <si>
+    <t>Percentage of people suspected positive with COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tab "SIR Model Inputs" is to be updated by the user. </t>
+  </si>
+  <si>
+    <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
+  </si>
+  <si>
+    <t>Currently_infected_COVID_19_Patients</t>
+  </si>
+  <si>
+    <t>Charkhi Dadri</t>
+  </si>
+  <si>
+    <t>Mahendragarh (Narnaul)</t>
+  </si>
+  <si>
+    <t>Ambala</t>
+  </si>
+  <si>
+    <t>Bhiwani</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>Fatehabad</t>
+  </si>
+  <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>Jhajjar</t>
+  </si>
+  <si>
+    <t>Jind</t>
+  </si>
+  <si>
+    <t>Kaithal</t>
+  </si>
+  <si>
+    <t>Karnal</t>
+  </si>
+  <si>
+    <t>Kurukshetra</t>
+  </si>
+  <si>
+    <t>Nuh</t>
+  </si>
+  <si>
+    <t>Palwal</t>
+  </si>
+  <si>
+    <t>Panchkula</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Rewari</t>
+  </si>
+  <si>
+    <t>Rohtak</t>
+  </si>
+  <si>
+    <t>Sirsa</t>
+  </si>
+  <si>
+    <t>Sonipat</t>
+  </si>
+  <si>
+    <t>Yamunanagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,33 +231,82 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="EYInterstate"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="EYInterstate"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="EYInterstate Light"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="EYInterstate"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -189,22 +329,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{F298D2BD-6282-4863-9C85-ED696948B540}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,6 +497,5909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7040880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFB52A5-3D9B-49D0-ACAA-980E0A8D113B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4686300" y="0"/>
+          <a:ext cx="5478780" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274CE99C-AD15-493F-8773-07FB949F584D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3810000" y="68582"/>
+          <a:ext cx="617220" cy="579118"/>
+          <a:chOff x="499881" y="1670723"/>
+          <a:chExt cx="987425" cy="1157287"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767ED190-B810-4095-B20E-7FD4EBD24AF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="499881" y="1670723"/>
+            <a:ext cx="790575" cy="288925"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 2491 w 2491"/>
+              <a:gd name="T1" fmla="*/ 0 h 910"/>
+              <a:gd name="T2" fmla="*/ 0 w 2491"/>
+              <a:gd name="T3" fmla="*/ 910 h 910"/>
+              <a:gd name="T4" fmla="*/ 2491 w 2491"/>
+              <a:gd name="T5" fmla="*/ 469 h 910"/>
+              <a:gd name="T6" fmla="*/ 2491 w 2491"/>
+              <a:gd name="T7" fmla="*/ 0 h 910"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="2491" h="910">
+                <a:moveTo>
+                  <a:pt x="2491" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="910"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2491" y="469"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2491" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFE600"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vert="horz" wrap="square" lIns="91392" tIns="45696" rIns="91392" bIns="45696" numCol="1" anchor="t" anchorCtr="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="913943" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1799" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freeform 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89CA7F6-F11B-4C4B-A806-0E46207F04A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="499881" y="2080298"/>
+            <a:ext cx="987425" cy="747712"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 235 w 3110"/>
+              <a:gd name="T1" fmla="*/ 1600 h 2357"/>
+              <a:gd name="T2" fmla="*/ 255 w 3110"/>
+              <a:gd name="T3" fmla="*/ 1809 h 2357"/>
+              <a:gd name="T4" fmla="*/ 152 w 3110"/>
+              <a:gd name="T5" fmla="*/ 1823 h 2357"/>
+              <a:gd name="T6" fmla="*/ 353 w 3110"/>
+              <a:gd name="T7" fmla="*/ 1774 h 2357"/>
+              <a:gd name="T8" fmla="*/ 419 w 3110"/>
+              <a:gd name="T9" fmla="*/ 1871 h 2357"/>
+              <a:gd name="T10" fmla="*/ 1148 w 3110"/>
+              <a:gd name="T11" fmla="*/ 1664 h 2357"/>
+              <a:gd name="T12" fmla="*/ 1225 w 3110"/>
+              <a:gd name="T13" fmla="*/ 1751 h 2357"/>
+              <a:gd name="T14" fmla="*/ 701 w 3110"/>
+              <a:gd name="T15" fmla="*/ 1558 h 2357"/>
+              <a:gd name="T16" fmla="*/ 744 w 3110"/>
+              <a:gd name="T17" fmla="*/ 1723 h 2357"/>
+              <a:gd name="T18" fmla="*/ 866 w 3110"/>
+              <a:gd name="T19" fmla="*/ 1868 h 2357"/>
+              <a:gd name="T20" fmla="*/ 838 w 3110"/>
+              <a:gd name="T21" fmla="*/ 1696 h 2357"/>
+              <a:gd name="T22" fmla="*/ 2035 w 3110"/>
+              <a:gd name="T23" fmla="*/ 1874 h 2357"/>
+              <a:gd name="T24" fmla="*/ 2173 w 3110"/>
+              <a:gd name="T25" fmla="*/ 1760 h 2357"/>
+              <a:gd name="T26" fmla="*/ 2115 w 3110"/>
+              <a:gd name="T27" fmla="*/ 1743 h 2357"/>
+              <a:gd name="T28" fmla="*/ 2074 w 3110"/>
+              <a:gd name="T29" fmla="*/ 1696 h 2357"/>
+              <a:gd name="T30" fmla="*/ 1318 w 3110"/>
+              <a:gd name="T31" fmla="*/ 1748 h 2357"/>
+              <a:gd name="T32" fmla="*/ 1455 w 3110"/>
+              <a:gd name="T33" fmla="*/ 1858 h 2357"/>
+              <a:gd name="T34" fmla="*/ 1484 w 3110"/>
+              <a:gd name="T35" fmla="*/ 1938 h 2357"/>
+              <a:gd name="T36" fmla="*/ 1378 w 3110"/>
+              <a:gd name="T37" fmla="*/ 1794 h 2357"/>
+              <a:gd name="T38" fmla="*/ 1740 w 3110"/>
+              <a:gd name="T39" fmla="*/ 1690 h 2357"/>
+              <a:gd name="T40" fmla="*/ 1644 w 3110"/>
+              <a:gd name="T41" fmla="*/ 1791 h 2357"/>
+              <a:gd name="T42" fmla="*/ 1835 w 3110"/>
+              <a:gd name="T43" fmla="*/ 1723 h 2357"/>
+              <a:gd name="T44" fmla="*/ 1698 w 3110"/>
+              <a:gd name="T45" fmla="*/ 1800 h 2357"/>
+              <a:gd name="T46" fmla="*/ 1721 w 3110"/>
+              <a:gd name="T47" fmla="*/ 1831 h 2357"/>
+              <a:gd name="T48" fmla="*/ 2256 w 3110"/>
+              <a:gd name="T49" fmla="*/ 1780 h 2357"/>
+              <a:gd name="T50" fmla="*/ 2243 w 3110"/>
+              <a:gd name="T51" fmla="*/ 1665 h 2357"/>
+              <a:gd name="T52" fmla="*/ 2306 w 3110"/>
+              <a:gd name="T53" fmla="*/ 1880 h 2357"/>
+              <a:gd name="T54" fmla="*/ 2338 w 3110"/>
+              <a:gd name="T55" fmla="*/ 1722 h 2357"/>
+              <a:gd name="T56" fmla="*/ 2929 w 3110"/>
+              <a:gd name="T57" fmla="*/ 1763 h 2357"/>
+              <a:gd name="T58" fmla="*/ 2750 w 3110"/>
+              <a:gd name="T59" fmla="*/ 1695 h 2357"/>
+              <a:gd name="T60" fmla="*/ 2872 w 3110"/>
+              <a:gd name="T61" fmla="*/ 1874 h 2357"/>
+              <a:gd name="T62" fmla="*/ 2658 w 3110"/>
+              <a:gd name="T63" fmla="*/ 1797 h 2357"/>
+              <a:gd name="T64" fmla="*/ 2623 w 3110"/>
+              <a:gd name="T65" fmla="*/ 1867 h 2357"/>
+              <a:gd name="T66" fmla="*/ 2482 w 3110"/>
+              <a:gd name="T67" fmla="*/ 1876 h 2357"/>
+              <a:gd name="T68" fmla="*/ 2513 w 3110"/>
+              <a:gd name="T69" fmla="*/ 1825 h 2357"/>
+              <a:gd name="T70" fmla="*/ 3019 w 3110"/>
+              <a:gd name="T71" fmla="*/ 1651 h 2357"/>
+              <a:gd name="T72" fmla="*/ 981 w 3110"/>
+              <a:gd name="T73" fmla="*/ 1874 h 2357"/>
+              <a:gd name="T74" fmla="*/ 2433 w 3110"/>
+              <a:gd name="T75" fmla="*/ 2085 h 2357"/>
+              <a:gd name="T76" fmla="*/ 2528 w 3110"/>
+              <a:gd name="T77" fmla="*/ 2268 h 2357"/>
+              <a:gd name="T78" fmla="*/ 2503 w 3110"/>
+              <a:gd name="T79" fmla="*/ 2090 h 2357"/>
+              <a:gd name="T80" fmla="*/ 631 w 3110"/>
+              <a:gd name="T81" fmla="*/ 2093 h 2357"/>
+              <a:gd name="T82" fmla="*/ 677 w 3110"/>
+              <a:gd name="T83" fmla="*/ 2105 h 2357"/>
+              <a:gd name="T84" fmla="*/ 203 w 3110"/>
+              <a:gd name="T85" fmla="*/ 2151 h 2357"/>
+              <a:gd name="T86" fmla="*/ 312 w 3110"/>
+              <a:gd name="T87" fmla="*/ 2190 h 2357"/>
+              <a:gd name="T88" fmla="*/ 507 w 3110"/>
+              <a:gd name="T89" fmla="*/ 2190 h 2357"/>
+              <a:gd name="T90" fmla="*/ 377 w 3110"/>
+              <a:gd name="T91" fmla="*/ 2201 h 2357"/>
+              <a:gd name="T92" fmla="*/ 442 w 3110"/>
+              <a:gd name="T93" fmla="*/ 2201 h 2357"/>
+              <a:gd name="T94" fmla="*/ 2213 w 3110"/>
+              <a:gd name="T95" fmla="*/ 2056 h 2357"/>
+              <a:gd name="T96" fmla="*/ 1608 w 3110"/>
+              <a:gd name="T97" fmla="*/ 2042 h 2357"/>
+              <a:gd name="T98" fmla="*/ 1951 w 3110"/>
+              <a:gd name="T99" fmla="*/ 2062 h 2357"/>
+              <a:gd name="T100" fmla="*/ 2016 w 3110"/>
+              <a:gd name="T101" fmla="*/ 2271 h 2357"/>
+              <a:gd name="T102" fmla="*/ 2075 w 3110"/>
+              <a:gd name="T103" fmla="*/ 2057 h 2357"/>
+              <a:gd name="T104" fmla="*/ 2016 w 3110"/>
+              <a:gd name="T105" fmla="*/ 2089 h 2357"/>
+              <a:gd name="T106" fmla="*/ 772 w 3110"/>
+              <a:gd name="T107" fmla="*/ 1949 h 2357"/>
+              <a:gd name="T108" fmla="*/ 1210 w 3110"/>
+              <a:gd name="T109" fmla="*/ 2052 h 2357"/>
+              <a:gd name="T110" fmla="*/ 1116 w 3110"/>
+              <a:gd name="T111" fmla="*/ 2102 h 2357"/>
+              <a:gd name="T112" fmla="*/ 1289 w 3110"/>
+              <a:gd name="T113" fmla="*/ 2093 h 2357"/>
+              <a:gd name="T114" fmla="*/ 1395 w 3110"/>
+              <a:gd name="T115" fmla="*/ 2266 h 2357"/>
+              <a:gd name="T116" fmla="*/ 1413 w 3110"/>
+              <a:gd name="T117" fmla="*/ 2350 h 2357"/>
+              <a:gd name="T118" fmla="*/ 1364 w 3110"/>
+              <a:gd name="T119" fmla="*/ 2217 h 2357"/>
+              <a:gd name="T120" fmla="*/ 1000 w 3110"/>
+              <a:gd name="T121" fmla="*/ 2141 h 2357"/>
+              <a:gd name="T122" fmla="*/ 400 w 3110"/>
+              <a:gd name="T123" fmla="*/ 970 h 2357"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T80" y="T81"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T82" y="T83"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T84" y="T85"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T86" y="T87"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T88" y="T89"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T90" y="T91"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T92" y="T93"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T94" y="T95"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T96" y="T97"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T98" y="T99"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T100" y="T101"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T102" y="T103"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T104" y="T105"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T106" y="T107"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T108" y="T109"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T110" y="T111"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T112" y="T113"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T114" y="T115"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T116" y="T117"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T118" y="T119"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T120" y="T121"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T122" y="T123"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="3110" h="2357">
+                <a:moveTo>
+                  <a:pt x="259" y="1777"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="259" y="1777"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="259" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="258" y="1762"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="255" y="1749"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="249" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="242" y="1729"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="235" y="1722"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="227" y="1717"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="220" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="213" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="213" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="221" y="1703"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="228" y="1698"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="233" y="1691"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="239" y="1683"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="243" y="1675"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="246" y="1666"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="248" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="248" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="248" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="248" y="1639"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="247" y="1630"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="245" y="1622"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="242" y="1614"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="239" y="1606"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="235" y="1600"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="229" y="1594"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="223" y="1589"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="217" y="1584"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210" y="1580"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="202" y="1576"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="193" y="1573"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="185" y="1571"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="175" y="1569"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="165" y="1569"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="153" y="1568"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="22" y="1568"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="22" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="165" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="176" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="187" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="197" y="1868"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="207" y="1864"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="216" y="1860"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="223" y="1854"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="230" y="1849"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="237" y="1842"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="242" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="248" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="251" y="1818"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="255" y="1809"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="257" y="1799"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="258" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="259" y="1777"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="259" y="1777"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="152" y="1823"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="79" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="79" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="163" y="1737"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="172" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="180" y="1741"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="187" y="1747"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="192" y="1752"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="196" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="198" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="199" y="1779"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="199" y="1779"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="198" y="1789"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="196" y="1798"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="191" y="1805"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="187" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="180" y="1817"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="172" y="1820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="162" y="1822"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="152" y="1823"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="151" y="1685"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="79" y="1685"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="79" y="1620"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="149" y="1620"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="149" y="1620"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="158" y="1621"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="167" y="1622"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="173" y="1624"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="179" y="1628"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="183" y="1633"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="187" y="1639"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="188" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="189" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="189" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="189" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="188" y="1664"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="186" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="182" y="1674"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="177" y="1679"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="170" y="1682"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="162" y="1684"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="151" y="1685"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="151" y="1685"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="298" y="1778"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="298" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="353" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="353" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="353" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="353" y="1787"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="356" y="1799"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="359" y="1808"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="363" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="369" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="376" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="385" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="395" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="395" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="405" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="412" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="420" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="426" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="430" y="1808"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="433" y="1798"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1787"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="491" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="491" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="431" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="425" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="419" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="412" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="406" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="398" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="390" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="382" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="382" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="369" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="358" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="348" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="338" y="1869"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="330" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="323" y="1858"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="318" y="1850"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="312" y="1842"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="309" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="306" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="301" y="1809"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="299" y="1792"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="298" y="1778"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="298" y="1778"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1143" y="1874"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1087" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1087" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1148" y="1664"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1154" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1160" y="1655"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1167" y="1652"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1175" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1182" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1190" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1198" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1198" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1208" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1217" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1226" y="1650"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1234" y="1652"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1242" y="1655"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1248" y="1661"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1254" y="1665"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1259" y="1672"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1265" y="1679"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1268" y="1686"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1273" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1275" y="1703"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1277" y="1713"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1279" y="1724"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="1748"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1225" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1225" y="1751"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1225" y="1751"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1225" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1223" y="1727"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1219" y="1718"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1215" y="1710"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1209" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1203" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1195" y="1698"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1185" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1185" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1175" y="1698"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1166" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1159" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1154" y="1710"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1148" y="1718"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1145" y="1728"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1751"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1143" y="1874"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="597" y="1762"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="541" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="541" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1762"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="646" y="1585"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="701" y="1558"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="701" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="701" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="646" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="646" y="1585"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="877" y="1666"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1666"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="873" y="1661"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="867" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="860" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="855" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="848" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="841" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="828" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="828" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="818" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="808" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="799" y="1650"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="791" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="784" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="776" y="1663"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="769" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="764" y="1676"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="758" y="1684"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="754" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="749" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="746" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="744" y="1723"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="741" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="740" y="1748"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="740" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="740" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="740" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="741" y="1787"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="744" y="1799"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="746" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="749" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="752" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="757" y="1840"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="762" y="1848"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="769" y="1856"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="775" y="1861"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="783" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="790" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="798" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="807" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="817" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="827" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="827" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="834" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="840" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="847" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="854" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="859" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="866" y="1868"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="871" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1858"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="933" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="933" y="1558"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1585"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1666"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="838" y="1829"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="838" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="831" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="824" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="817" y="1822"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="810" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="805" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="800" y="1794"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="797" y="1779"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="796" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="796" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="797" y="1741"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="800" y="1728"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="805" y="1717"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="810" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="816" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="824" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="830" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="838" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="838" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="845" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="851" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="858" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="863" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="867" y="1708"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="871" y="1711"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1719"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="877" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="870" y="1814"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="863" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="858" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="851" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="846" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="838" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="838" y="1829"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2084" y="1645"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2084" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2079" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2072" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2059" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2046" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1666"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1563"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1980" y="1591"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1980" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1858"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1858"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2040" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2046" y="1868"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2052" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2059" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2064" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2072" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2079" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2085" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2085" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2095" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2105" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2114" y="1876"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2123" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2131" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2137" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2144" y="1856"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2150" y="1849"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2155" y="1840"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2160" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2163" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2166" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2170" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2171" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2172" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2173" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2173" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2172" y="1748"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2171" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2169" y="1723"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2166" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2163" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2159" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2154" y="1684"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2149" y="1676"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2143" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2136" y="1663"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2129" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2121" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2113" y="1650"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2104" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2094" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2084" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2084" y="1645"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2074" y="1696"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2074" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2082" y="1698"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2090" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2096" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2103" y="1711"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2109" y="1719"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2112" y="1730"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2115" y="1743"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2116" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2116" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2115" y="1775"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2113" y="1790"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2111" y="1801"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2106" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2100" y="1819"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2093" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2085" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2075" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2075" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2067" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2061" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2055" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2050" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2041" y="1813"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1808"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1719"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="1719"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2039" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2043" y="1710"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2047" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2052" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2057" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2063" y="1698"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2069" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2074" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2074" y="1696"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1455" y="1666"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1666"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1451" y="1662"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1445" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1438" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1433" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1426" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1419" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1413" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1406" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1406" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1396" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1386" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1377" y="1650"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1369" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1362" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1354" y="1663"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1347" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1342" y="1676"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1336" y="1684"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1332" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1327" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1324" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1322" y="1723"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1319" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1318" y="1748"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1318" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1318" y="1760"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1318" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1319" y="1787"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1322" y="1799"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1324" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1327" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1330" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1336" y="1840"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1340" y="1848"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1347" y="1856"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1353" y="1861"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1360" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1368" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1376" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1385" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1395" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1405" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1405" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1412" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1425" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1432" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1438" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1444" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1449" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1858"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1863"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1872"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1454" y="1882"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1452" y="1892"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1449" y="1897"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1446" y="1901"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1443" y="1906"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1438" y="1910"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1432" y="1913"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1425" y="1916"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1417" y="1919"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1407" y="1920"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1396" y="1922"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1384" y="1922"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1382" y="1922"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1401" y="1966"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="1966"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="1966"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1415" y="1966"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1427" y="1963"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1439" y="1961"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1449" y="1958"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1459" y="1954"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1468" y="1950"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1476" y="1943"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1484" y="1938"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1491" y="1930"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1495" y="1921"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1501" y="1912"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1504" y="1902"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1507" y="1891"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1509" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1511" y="1868"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1511" y="1853"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1511" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1666"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1455" y="1719"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1448" y="1814"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1439" y="1822"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1435" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1429" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1423" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1416" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1416" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1408" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1394" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1388" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1383" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="1794"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1375" y="1779"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1374" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1374" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1375" y="1741"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="1728"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1383" y="1717"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1388" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1394" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1408" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1416" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1416" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1423" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1429" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1436" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1441" y="1703"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1445" y="1708"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1449" y="1711"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1719"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1455" y="1719"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1683" y="1705"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1683" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1696" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1709" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1724" y="1691"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1740" y="1690"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1740" y="1690"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1750" y="1691"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1757" y="1692"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1764" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1770" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1774" y="1703"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1777" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1722"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1770" y="1733"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1757" y="1730"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1745" y="1728"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1732" y="1727"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1732" y="1727"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1716" y="1728"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1701" y="1731"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1686" y="1735"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1678" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1672" y="1743"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1666" y="1748"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1661" y="1753"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1655" y="1759"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1651" y="1765"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1647" y="1773"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1645" y="1782"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1644" y="1791"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1643" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1643" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1644" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1645" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1647" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1651" y="1838"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1654" y="1844"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1659" y="1851"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1664" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1671" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1676" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1683" y="1870"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1697" y="1876"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1712" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1726" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1726" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1738" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1746" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1753" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1761" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1767" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1774" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1835" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1835" y="1723"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1835" y="1723"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1835" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1834" y="1707"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1832" y="1699"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1830" y="1691"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1825" y="1684"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1822" y="1678"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1816" y="1672"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1811" y="1666"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1805" y="1662"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1798" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1791" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1783" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1774" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1765" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1755" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1745" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1745" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1733" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1723" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1712" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1701" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1691" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1681" y="1658"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1671" y="1662"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1661" y="1668"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1683" y="1705"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1698" y="1800"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1698" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1698" y="1793"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1701" y="1787"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1704" y="1781"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1708" y="1777"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1714" y="1773"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1721" y="1771"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1728" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1736" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1736" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1748" y="1769"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1760" y="1771"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1770" y="1774"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1780" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1777" y="1814"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1773" y="1819"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1768" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1763" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1757" y="1830"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1751" y="1832"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1744" y="1833"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1736" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1736" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1728" y="1833"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1721" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1714" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1708" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1704" y="1820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1701" y="1814"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1699" y="1808"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1698" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1698" y="1800"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2350" y="1810"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2350" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2342" y="1817"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2332" y="1822"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2326" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2320" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2313" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2306" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2306" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2301" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2294" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2286" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2277" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2270" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2266" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2263" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2261" y="1801"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2259" y="1794"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2256" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2393" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2393" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2394" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2394" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2394" y="1750"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2392" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2391" y="1725"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2388" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2384" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2380" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2374" y="1685"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2369" y="1678"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2362" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2355" y="1664"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2348" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2339" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2330" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2321" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2311" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2300" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2300" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2290" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2280" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2270" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2260" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2251" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2243" y="1665"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2235" y="1671"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2229" y="1679"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2222" y="1686"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2216" y="1695"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2212" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2207" y="1715"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2204" y="1727"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2202" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2201" y="1750"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2200" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2200" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2201" y="1775"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2202" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2204" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2207" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2212" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2216" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2222" y="1840"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2229" y="1848"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2236" y="1854"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2244" y="1861"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2253" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2262" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2272" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2283" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2294" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2306" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2306" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2317" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2327" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2339" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2349" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2359" y="1866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2368" y="1860"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2376" y="1852"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2385" y="1844"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2350" y="1810"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2257" y="1739"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2259" y="1729"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2261" y="1720"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2264" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2270" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2275" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2282" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2290" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2299" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2299" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2309" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2317" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2324" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2330" y="1708"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2334" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2338" y="1722"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2340" y="1731"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2341" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="1739"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2884" y="1810"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2884" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2875" y="1817"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2867" y="1822"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2860" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2854" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2848" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2840" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2840" y="1829"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2834" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2828" y="1828"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2820" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2812" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2804" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2801" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2798" y="1807"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2795" y="1801"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2793" y="1794"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2791" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2790" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2928" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2928" y="1780"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2929" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2929" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2928" y="1750"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2927" y="1738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2924" y="1725"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2922" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2918" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2913" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2909" y="1685"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2903" y="1678"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2897" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2889" y="1664"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2881" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2873" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2864" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2854" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2844" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2834" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2834" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2823" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2813" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2803" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2794" y="1654"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2785" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2777" y="1665"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2770" y="1671"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2762" y="1679"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2755" y="1686"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2750" y="1695"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2745" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2741" y="1715"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2739" y="1727"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2735" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2734" y="1750"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2734" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2734" y="1763"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2734" y="1775"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2735" y="1788"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2738" y="1800"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2741" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2745" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2751" y="1831"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2757" y="1840"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2763" y="1848"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2770" y="1854"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2778" y="1861"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2787" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2797" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2807" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2817" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2829" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2840" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2840" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2851" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2862" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2872" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2882" y="1871"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2892" y="1866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2902" y="1860"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2911" y="1852"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2919" y="1844"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2884" y="1810"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2791" y="1739"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2791" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2792" y="1729"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2795" y="1720"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2799" y="1712"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2803" y="1705"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2810" y="1700"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2817" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2824" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2833" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2833" y="1693"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2843" y="1694"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2851" y="1696"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2859" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2864" y="1708"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2869" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2872" y="1722"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2874" y="1731"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2875" y="1739"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2791" y="1739"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2658" y="1797"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1797"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1804"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2659" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2661" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2663" y="1820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2667" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2671" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2675" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2682" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2682" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2690" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2699" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2708" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2715" y="1817"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2709" y="1869"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2709" y="1869"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2699" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2687" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2674" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2662" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2662" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2654" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2647" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2640" y="1876"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2634" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2629" y="1870"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2623" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2620" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2615" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2610" y="1847"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2605" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2603" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2602" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2602" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2568" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2568" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2602" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2602" y="1593"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1565"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2708" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2708" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2658" y="1797"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2550" y="1869"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2550" y="1869"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2540" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2529" y="1877"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2516" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2504" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2504" y="1880"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2495" y="1879"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2489" y="1878"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2482" y="1876"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2475" y="1873"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2471" y="1870"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2465" y="1867"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2461" y="1862"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2458" y="1857"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2451" y="1847"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2448" y="1834"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2444" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2444" y="1811"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2444" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2410" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2410" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2444" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2444" y="1593"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1565"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2546" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2546" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1797"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1797"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2500" y="1804"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2501" y="1810"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2503" y="1815"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2505" y="1820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2509" y="1823"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2513" y="1825"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2518" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2523" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2523" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2532" y="1827"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2541" y="1824"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2549" y="1821"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2556" y="1817"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2550" y="1869"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="3096" y="1713"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="3096" y="1713"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3088" y="1708"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3079" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3069" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3059" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3059" y="1701"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3050" y="1702"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3041" y="1704"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3034" y="1709"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3029" y="1714"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3024" y="1721"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3022" y="1730"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3020" y="1741"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3019" y="1753"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3019" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2964" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2964" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3019" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3019" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3019" y="1670"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3024" y="1664"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3030" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3036" y="1655"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3042" y="1652"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3048" y="1649"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3054" y="1648"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3061" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3069" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3069" y="1645"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3080" y="1646"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3091" y="1650"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3101" y="1653"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3110" y="1659"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3096" y="1713"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="597" y="1598"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1619"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="541" y="1619"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="541" y="1563"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1563"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="597" y="1598"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="981" y="1651"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1651"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1765"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="981" y="1874"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="981" y="1651"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1037" y="1591"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1619"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="981" y="1619"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="981" y="1563"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1563"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1037" y="1591"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2558" y="2058"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2058"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2552" y="2053"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2546" y="2049"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2541" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2534" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2529" y="2040"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2522" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2508" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2508" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2498" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2489" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2480" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2471" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2463" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2456" y="2055"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2450" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2443" y="2068"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2439" y="2076"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2433" y="2085"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2430" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2426" y="2105"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2423" y="2115"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2422" y="2127"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2421" y="2139"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2420" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2420" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2421" y="2166"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2422" y="2178"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2423" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2426" y="2202"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2429" y="2212"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2433" y="2222"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2438" y="2231"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2443" y="2239"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2449" y="2247"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2455" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2462" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2470" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2479" y="2267"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2488" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2496" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2506" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2506" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2513" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2521" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2528" y="2268"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2533" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2540" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2546" y="2259"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2552" y="2255"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2249"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2613" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2613" y="1949"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="1977"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2058"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2519" y="2220"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2519" y="2220"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2511" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2504" y="2217"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2496" y="2214"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2490" y="2207"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2484" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2480" y="2186"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2478" y="2170"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2476" y="2150"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2476" y="2150"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2478" y="2133"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2480" y="2119"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2484" y="2108"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2490" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2496" y="2095"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2503" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2511" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2518" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2518" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2525" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2532" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2538" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2543" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2548" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2552" y="2102"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2110"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2558" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2551" y="2206"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2543" y="2212"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2538" y="2216"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2532" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2525" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2519" y="2220"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2519" y="2220"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="677" y="2105"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="677" y="2105"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="669" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="660" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="650" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="640" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="640" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="631" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="622" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="616" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="610" y="2106"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="606" y="2112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="604" y="2121"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="601" y="2132"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="600" y="2145"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="600" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="546" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="546" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="600" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="600" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="600" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="606" y="2056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="611" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="617" y="2047"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="624" y="2043"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="629" y="2040"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="636" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="644" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="650" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="650" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="661" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="672" y="2041"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="684" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="692" y="2051"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="677" y="2105"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="242" y="2042"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="297" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="233" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="186" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="161" y="2174"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="161" y="2174"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="149" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="149" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="143" y="2148"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="137" y="2175"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="111" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="63" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="63" y="2265"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="58" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="78" y="2126"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="78" y="2126"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="83" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="89" y="2180"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="89" y="2180"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="96" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="102" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="126" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="173" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="197" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="197" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="203" y="2151"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="215" y="2156"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="221" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="242" y="2042"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="409" y="2037"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="399" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="388" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="378" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="369" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="360" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="351" y="2056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="343" y="2062"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="337" y="2070"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="330" y="2078"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="325" y="2087"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="319" y="2097"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="316" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="312" y="2118"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="310" y="2129"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="308" y="2141"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="308" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="308" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="308" y="2167"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="310" y="2179"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="312" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="316" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="319" y="2211"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="325" y="2221"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="330" y="2230"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="337" y="2238"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="343" y="2246"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="351" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="360" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="369" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="378" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="388" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="399" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="420" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="431" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="441" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="450" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="459" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="468" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="476" y="2246"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="482" y="2238"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="489" y="2230"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="495" y="2221"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="499" y="2211"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="504" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="507" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="509" y="2179"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="511" y="2167"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="511" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="511" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="511" y="2141"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="509" y="2129"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="507" y="2118"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="504" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="499" y="2097"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="495" y="2087"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="489" y="2078"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="482" y="2070"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="476" y="2062"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="468" y="2056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="459" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="450" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="441" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="431" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="420" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2037"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="409" y="2219"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="399" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="390" y="2215"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="383" y="2209"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="377" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="371" y="2192"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="367" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="365" y="2168"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="365" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="365" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="365" y="2140"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="367" y="2127"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="371" y="2117"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="377" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="383" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="390" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="399" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="419" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="428" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="442" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="448" y="2117"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="451" y="2127"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="453" y="2140"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="455" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="455" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="453" y="2168"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="451" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="448" y="2192"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="442" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="436" y="2209"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="428" y="2215"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="419" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="409" y="2219"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2285" y="2105"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2285" y="2105"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2276" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2267" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2249" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2249" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2239" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2231" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2224" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2219" y="2106"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2214" y="2112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2211" y="2121"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2132"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2145"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2153" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2153" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2209" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2213" y="2056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2219" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2224" y="2047"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2231" y="2043"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2237" y="2040"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2244" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2251" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2257" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2269" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2280" y="2041"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2291" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2300" y="2051"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2285" y="2105"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1850" y="2042"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1904" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1841" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1793" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1768" y="2174"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1768" y="2174"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1756" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1756" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1751" y="2148"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1744" y="2175"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1720" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1672" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1671" y="2265"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1608" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1665" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1686" y="2126"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1686" y="2126"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1692" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1697" y="2180"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1697" y="2180"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1703" y="2152"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1711" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1734" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1781" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1804" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1804" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1811" y="2151"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1817" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1817" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1823" y="2156"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1830" y="2125"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1850" y="2042"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2016" y="2037"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2006" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1995" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1985" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1976" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1967" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1958" y="2057"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1951" y="2062"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1944" y="2070"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1937" y="2078"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1932" y="2087"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1926" y="2097"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1923" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1920" y="2118"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1916" y="2130"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1915" y="2141"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1915" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1915" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1915" y="2167"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1916" y="2179"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1920" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1923" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1926" y="2211"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1932" y="2221"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1937" y="2230"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1944" y="2238"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1951" y="2246"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1958" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1967" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1976" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1985" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1995" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2006" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2027" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2039" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2049" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2057" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2066" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2075" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2083" y="2246"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2090" y="2238"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2096" y="2230"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2102" y="2221"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2106" y="2211"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2111" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2114" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2116" y="2179"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2119" y="2167"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2119" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2119" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2119" y="2141"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2116" y="2130"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2114" y="2118"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2111" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2106" y="2097"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2102" y="2087"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2096" y="2078"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2090" y="2070"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2083" y="2062"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2075" y="2057"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2066" y="2050"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2057" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2049" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2039" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2027" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2037"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2016" y="2219"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2006" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1998" y="2215"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1991" y="2209"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1984" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1978" y="2192"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1974" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1972" y="2168"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1972" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1972" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1972" y="2140"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1974" y="2128"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1978" y="2117"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1984" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1991" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1998" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2006" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2026" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2043" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2050" y="2107"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2055" y="2117"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2059" y="2128"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2061" y="2140"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2062" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2062" y="2155"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2061" y="2168"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2059" y="2181"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2055" y="2192"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2050" y="2201"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2043" y="2209"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2035" y="2215"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2026" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2016" y="2219"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="843" y="2116"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="910" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="849" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="803" y="2162"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="772" y="2199"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="772" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="718" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="718" y="1977"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="772" y="1949"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="772" y="2128"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="772" y="2128"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="794" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="838" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="903" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="843" y="2116"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1105" y="2266"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1049" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1049" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1105" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1105" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1105" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1110" y="2056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1116" y="2051"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1123" y="2047"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1129" y="2043"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1137" y="2041"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1145" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1153" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1162" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1162" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1172" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1180" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1188" y="2041"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1197" y="2043"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1204" y="2048"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1210" y="2052"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1217" y="2057"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1223" y="2063"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1227" y="2070"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1232" y="2078"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1235" y="2086"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1238" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1240" y="2106"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1242" y="2116"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1243" y="2127"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1244" y="2139"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1244" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1188" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1188" y="2142"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1188" y="2142"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1187" y="2130"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1186" y="2118"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1183" y="2109"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1178" y="2101"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1173" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1166" y="2091"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1157" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1147" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1147" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1138" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1129" y="2091"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1122" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1116" y="2102"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1112" y="2109"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1108" y="2119"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1106" y="2130"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1105" y="2142"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1105" y="2266"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1418" y="2058"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2058"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1413" y="2053"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1407" y="2049"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1395" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1388" y="2040"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1382" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1375" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1368" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1368" y="2037"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1358" y="2038"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1349" y="2039"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1340" y="2041"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1332" y="2046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1324" y="2049"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1317" y="2055"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1310" y="2061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1304" y="2068"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1298" y="2076"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1294" y="2085"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1289" y="2093"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1286" y="2105"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1284" y="2115"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1282" y="2127"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="2139"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="2151"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="2151"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1280" y="2166"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1282" y="2178"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1284" y="2190"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1286" y="2202"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1289" y="2212"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1294" y="2222"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1298" y="2231"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1304" y="2239"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1309" y="2247"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1316" y="2252"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1323" y="2258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1330" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1339" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1348" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1357" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1367" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1367" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1374" y="2270"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1382" y="2269"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1388" y="2268"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1395" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1401" y="2262"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1407" y="2259"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1413" y="2255"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2249"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2255"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2255"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2264"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1417" y="2274"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1414" y="2284"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1412" y="2288"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1409" y="2293"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1405" y="2297"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1401" y="2301"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1395" y="2305"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1388" y="2308"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1379" y="2310"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1370" y="2313"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1359" y="2314"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1346" y="2314"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1344" y="2314"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1364" y="2357"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1365" y="2357"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1365" y="2357"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="2357"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1390" y="2356"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1402" y="2353"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1413" y="2350"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1423" y="2346"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1432" y="2341"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1439" y="2336"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1446" y="2329"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1453" y="2321"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1458" y="2314"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1463" y="2304"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1466" y="2294"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1469" y="2284"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1472" y="2271"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1473" y="2259"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1473" y="2246"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1473" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2058"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1418" y="2110"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1411" y="2206"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1403" y="2214"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1397" y="2216"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1392" y="2218"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1386" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="2220"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="2220"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1372" y="2219"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1364" y="2217"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1357" y="2214"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1350" y="2207"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1345" y="2198"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1340" y="2186"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1338" y="2170"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1337" y="2150"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1337" y="2150"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1338" y="2133"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1340" y="2119"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1345" y="2108"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1350" y="2100"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1357" y="2095"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1364" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1372" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1378" y="2088"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1386" y="2089"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1393" y="2090"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1398" y="2092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1404" y="2096"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1408" y="2099"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1412" y="2102"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2110"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1418" y="2110"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="945" y="2042"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="2042"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="2141"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="945" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="945" y="2042"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1000" y="1982"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="2010"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="945" y="2010"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="945" y="1954"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="1954"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1000" y="1982"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="2325" y="1977"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="2381" y="1949"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2381" y="2151"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2381" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2325" y="2266"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2325" y="1977"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="400" y="762"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="856" y="762"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="856" y="498"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="400" y="498"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="400" y="290"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="905" y="290"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="737" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="22" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="22" y="1261"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1030" y="1261"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1030" y="970"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="400" y="970"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="400" y="762"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="1702" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1487" y="411"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1274" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="856" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1296" y="762"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1296" y="1261"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1673" y="1261"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1673" y="762"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="2114" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1702" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vert="horz" wrap="square" lIns="91392" tIns="45696" rIns="91392" bIns="45696" numCol="1" anchor="t" anchorCtr="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="913943" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1799" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,299 +6698,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6348C77-C34E-48FF-82B6-6BF541880862}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E11533B-AFBC-4F42-A8C9-9D638F8AA73A}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="16">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="20">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>360000</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="17">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B19FEB-DC55-462E-A254-A83042277A07}">
-  <dimension ref="A1:M2"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="27"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>360000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>69</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="M2" s="4">
-        <v>100</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="27"/>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="EbIWvWWKA+vjN3BZYtoe6Pzjsmxhi7wk3XCOy0E+4DN8Ua9exaLibuT681g6Un+cYx99/+s0H+7HZBFzSRVeLw==" saltValue="TMabuH0GGGYJ7HkLBOsXzw==" spinCount="100000" sqref="A2:A23" name="Range2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="PtuAYvgubdk/bS/CvivCMW9e5IAUAEApTvYlBUSzUoVaKDc6Zkd3pn+vw51u6konziUbGK7UsyVvBDKTJm3bFw==" saltValue="rv9AL38iyL9uteJIea3nsQ==" spinCount="100000" sqref="B2:B23" name="Range1"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -816,7 +7411,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -1039,24 +7634,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1064,7 +7648,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1081,4 +7665,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>